--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/87212562/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/87212562/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9810212850570679</v>
+        <v>0.9717261791229248</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9808779954910278</v>
+        <v>0.9714771509170532</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9797545075416565</v>
+        <v>0.9699634909629822</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.698229968547821</v>
+        <v>0.6271273493766785</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9820519089698792</v>
+        <v>0.973065972328186</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9827583432197571</v>
+        <v>0.9740249514579773</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9826357364654541</v>
+        <v>0.9738725423812866</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9822431802749634</v>
+        <v>0.9732975363731384</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9826357364654541</v>
+        <v>0.9738725423812866</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5539693236351013</v>
+        <v>0.5309058427810669</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9840133786201477</v>
+        <v>0.975741982460022</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9313705563545227</v>
+        <v>0.8982094526290894</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9817721843719482</v>
+        <v>0.9727062582969666</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.98183274269104</v>
+        <v>0.9727745056152344</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9820669889450073</v>
+        <v>0.9730832576751709</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9821087121963501</v>
+        <v>0.9731369614601135</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2865164577960968</v>
+        <v>0.2995750606060028</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9831674695014954</v>
+        <v>0.9745760560035706</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9834575653076172</v>
+        <v>0.9749926924705505</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9799824953079224</v>
+        <v>0.9702966809272766</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9818665385246277</v>
+        <v>0.9728440046310425</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9831793308258057</v>
+        <v>0.9745829701423645</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9835516810417175</v>
+        <v>0.9750985503196716</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6973440647125244</v>
+        <v>0.6264590620994568</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2779450118541718</v>
+        <v>0.291460245847702</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9810553789138794</v>
+        <v>0.9717508554458618</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9808779954910278</v>
+        <v>0.9714771509170532</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9800677895545959</v>
+        <v>0.97041255235672</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.982063889503479</v>
+        <v>0.9730724096298218</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9809113740921021</v>
+        <v>0.9715277552604675</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.982858419418335</v>
+        <v>0.9741558432579041</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8791286945343018</v>
+        <v>0.8576926589012146</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9317600727081299</v>
+        <v>0.8988063335418701</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9275643229484558</v>
+        <v>0.8929467797279358</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.982793927192688</v>
+        <v>0.974073588848114</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9288614392280579</v>
+        <v>0.8947763442993164</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9837861657142639</v>
+        <v>0.9754317998886108</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9289796352386475</v>
+        <v>0.8945091962814331</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8787433505058289</v>
+        <v>0.8572773337364197</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9838103055953979</v>
+        <v>0.975463330745697</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.902207612991333</v>
+        <v>0.8593934178352356</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8834283351898193</v>
+        <v>0.8626639246940613</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.929596483707428</v>
+        <v>0.8958331942558289</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8858646750450134</v>
+        <v>0.8655011653900146</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8783161640167236</v>
+        <v>0.8561663031578064</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6812226176261902</v>
+        <v>0.6203930974006653</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.876069188117981</v>
+        <v>0.8539775013923645</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9835909008979797</v>
+        <v>0.9751623868942261</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8805296421051025</v>
+        <v>0.8592694997787476</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8767581582069397</v>
+        <v>0.8541398048400879</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9807451963424683</v>
+        <v>0.9712916612625122</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8805296421051025</v>
+        <v>0.8592694997787476</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8806950449943542</v>
+        <v>0.8595391511917114</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.982721745967865</v>
+        <v>0.9739654064178467</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9829555749893188</v>
+        <v>0.9742932319641113</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.983977735042572</v>
+        <v>0.9756810665130615</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9275304675102234</v>
+        <v>0.892865777015686</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9837151169776917</v>
+        <v>0.975336492061615</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9823483824729919</v>
+        <v>0.9734772443771362</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9828540086746216</v>
+        <v>0.9741453528404236</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9836516976356506</v>
+        <v>0.9752413630485535</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9297455549240112</v>
+        <v>0.8959683179855347</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5362185835838318</v>
+        <v>0.469641238451004</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.927614688873291</v>
+        <v>0.8929812908172607</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.927614688873291</v>
+        <v>0.8929812908172607</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9297656416893005</v>
+        <v>0.8959721922874451</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.927614688873291</v>
+        <v>0.8929812908172607</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7642160654067993</v>
+        <v>0.644463062286377</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.982745349407196</v>
+        <v>0.9740021228790283</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.929406464099884</v>
+        <v>0.895367443561554</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9786571860313416</v>
+        <v>0.9685226678848267</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.928811252117157</v>
+        <v>0.8947239518165588</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9818820357322693</v>
+        <v>0.972861111164093</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9820564389228821</v>
+        <v>0.973066508769989</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.928811252117157</v>
+        <v>0.8947239518165588</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9809103608131409</v>
+        <v>0.9715393781661987</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.928811252117157</v>
+        <v>0.8947239518165588</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9831697940826416</v>
+        <v>0.9745737910270691</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9288648366928101</v>
+        <v>0.8947955369949341</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9809242486953735</v>
+        <v>0.971558690071106</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9288648366928101</v>
+        <v>0.8947955369949341</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.975576639175415</v>
+        <v>0.9644967317581177</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.975576639175415</v>
+        <v>0.9644967317581177</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9839682579040527</v>
+        <v>0.9756811261177063</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9296053647994995</v>
+        <v>0.8957412838935852</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9831336140632629</v>
+        <v>0.9745206832885742</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9288220405578613</v>
+        <v>0.8947451710700989</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.98089599609375</v>
+        <v>0.9715264439582825</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9818623661994934</v>
+        <v>0.972831666469574</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9818593859672546</v>
+        <v>0.9728267192840576</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9818759560585022</v>
+        <v>0.97284996509552</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9818536639213562</v>
+        <v>0.9728230237960815</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9818533062934875</v>
+        <v>0.9728220105171204</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.98186856508255</v>
+        <v>0.9728443026542664</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9840673208236694</v>
+        <v>0.9758037328720093</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2726885378360748</v>
+        <v>0.2213776111602783</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9835132956504822</v>
+        <v>0.9750561714172363</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.981010377407074</v>
+        <v>0.971674382686615</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.98003089427948</v>
+        <v>0.9703823328018188</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9832302927970886</v>
+        <v>0.9746648669242859</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6994333863258362</v>
+        <v>0.6244308948516846</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8810242414474487</v>
+        <v>0.8594067096710205</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9820428490638733</v>
+        <v>0.9730537533760071</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7748822569847107</v>
+        <v>0.6553149223327637</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9800532460212708</v>
+        <v>0.9704095125198364</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8842803835868835</v>
+        <v>0.8636355400085449</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6839820742607117</v>
+        <v>0.6099866032600403</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9810773730278015</v>
+        <v>0.9717712998390198</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9808779954910278</v>
+        <v>0.9714771509170532</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8791722655296326</v>
+        <v>0.8577429056167603</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8834594488143921</v>
+        <v>0.8626078963279724</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9305524230003357</v>
+        <v>0.8971216678619385</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9836635589599609</v>
+        <v>0.9752607941627502</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9305379390716553</v>
+        <v>0.8970744013786316</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9755163788795471</v>
+        <v>0.96440589427948</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9783366918563843</v>
+        <v>0.9681317806243896</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7365023493766785</v>
+        <v>0.6112022399902344</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9825993776321411</v>
+        <v>0.9738143086433411</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9808779954910278</v>
+        <v>0.9714771509170532</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7643619775772095</v>
+        <v>0.6452741622924805</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9835980534553528</v>
+        <v>0.9751656651496887</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7643619775772095</v>
+        <v>0.6452741622924805</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9835980534553528</v>
+        <v>0.9751656651496887</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7643619775772095</v>
+        <v>0.6452741622924805</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9834053516387939</v>
+        <v>0.9748996496200562</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9810923933982849</v>
+        <v>0.9717430472373962</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9808779954910278</v>
+        <v>0.9714771509170532</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.982668399810791</v>
+        <v>0.9738816022872925</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.979945182800293</v>
+        <v>0.9702634811401367</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9783170819282532</v>
+        <v>0.9680851697921753</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.869776725769043</v>
+        <v>0.8477449417114258</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9820873141288757</v>
+        <v>0.9731167554855347</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9818341135978699</v>
+        <v>0.9727917313575745</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9827742576599121</v>
+        <v>0.9740479588508606</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9750968217849731</v>
+        <v>0.9638451933860779</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9820765256881714</v>
+        <v>0.9730864763259888</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9783369302749634</v>
+        <v>0.9681291580200195</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9783519506454468</v>
+        <v>0.9681397080421448</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9808850884437561</v>
+        <v>0.9714975357055664</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6249988079071045</v>
+        <v>0.5270276665687561</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9808779954910278</v>
+        <v>0.9714771509170532</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9275946021080017</v>
+        <v>0.8929688930511475</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9823544025421143</v>
+        <v>0.9734880924224854</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9275946021080017</v>
+        <v>0.8929688930511475</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9754928946495056</v>
+        <v>0.9643860459327698</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7642160654067993</v>
+        <v>0.644463062286377</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.981020450592041</v>
+        <v>0.9716962575912476</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9287558197975159</v>
+        <v>0.8946552872657776</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7667587995529175</v>
+        <v>0.6472999453544617</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9808779954910278</v>
+        <v>0.9714771509170532</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.6792223453521729</v>
+        <v>0.6002638339996338</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9837925434112549</v>
+        <v>0.9754392504692078</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.687558114528656</v>
+        <v>0.6143796443939209</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9835126996040344</v>
+        <v>0.9750345349311829</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6878035068511963</v>
+        <v>0.6147691607475281</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9823524355888367</v>
+        <v>0.9734753966331482</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6878198981285095</v>
+        <v>0.6148035526275635</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9826483726501465</v>
+        <v>0.9738812446594238</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9300246238708496</v>
+        <v>0.8963732719421387</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9811133146286011</v>
+        <v>0.9718206524848938</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9758732318878174</v>
+        <v>0.9649969935417175</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9783474206924438</v>
+        <v>0.9681324362754822</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.927534282207489</v>
+        <v>0.8928683400154114</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9839974641799927</v>
+        <v>0.9757151007652283</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9756432771682739</v>
+        <v>0.9645726680755615</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8725888133049011</v>
+        <v>0.8499478697776794</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9303702712059021</v>
+        <v>0.8968327045440674</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9808779954910278</v>
+        <v>0.9714771509170532</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8725888133049011</v>
+        <v>0.8499478697776794</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9296271800994873</v>
+        <v>0.8957864046096802</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9808779954910278</v>
+        <v>0.9714771509170532</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.978310227394104</v>
+        <v>0.968089759349823</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9783259630203247</v>
+        <v>0.9681097269058228</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.978310227394104</v>
+        <v>0.968089759349823</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.978310227394104</v>
+        <v>0.968089759349823</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9783259630203247</v>
+        <v>0.9681097269058228</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9810320734977722</v>
+        <v>0.9717199802398682</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.978681743144989</v>
+        <v>0.9685471057891846</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9820681214332581</v>
+        <v>0.9730931520462036</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9833306670188904</v>
+        <v>0.9748011231422424</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9827706813812256</v>
+        <v>0.9740332365036011</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7722025513648987</v>
+        <v>0.6531647443771362</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9835806488990784</v>
+        <v>0.9751391410827637</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.983807384967804</v>
+        <v>0.9754480123519897</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9829956889152527</v>
+        <v>0.9743496775627136</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9826231002807617</v>
+        <v>0.9738466739654541</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9810878038406372</v>
+        <v>0.9717810153961182</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9818451404571533</v>
+        <v>0.9727993011474609</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9818581342697144</v>
+        <v>0.9728150963783264</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2599435448646545</v>
+        <v>0.2115035057067871</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9828116297721863</v>
+        <v>0.9740918278694153</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9821087121963501</v>
+        <v>0.973141610622406</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.764350414276123</v>
+        <v>0.6453492045402527</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8803820013999939</v>
+        <v>0.8590968251228333</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9835398197174072</v>
+        <v>0.975081741809845</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9826220273971558</v>
+        <v>0.9738476872444153</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9829472899436951</v>
+        <v>0.9742869734764099</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9831867218017578</v>
+        <v>0.974597692489624</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9287614822387695</v>
+        <v>0.8944209814071655</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9832023978233337</v>
+        <v>0.974617600440979</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9832133054733276</v>
+        <v>0.9746358394622803</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9820887446403503</v>
+        <v>0.973113477230072</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.872677743434906</v>
+        <v>0.8501247763633728</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9832744002342224</v>
+        <v>0.9747381210327148</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9783118367195129</v>
+        <v>0.9680836200714111</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.2704163193702698</v>
+        <v>0.2211202681064606</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9786505699157715</v>
+        <v>0.9685140252113342</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.3009489476680756</v>
+        <v>0.3089878857135773</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9820392727851868</v>
+        <v>0.9730339050292969</v>
       </c>
     </row>
   </sheetData>
